--- a/public/public/assets/product_stocks_bulk_format.xlsx
+++ b/public/public/assets/product_stocks_bulk_format.xlsx
@@ -15,41 +15,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>major</t>
+  </si>
+  <si>
+    <t>minor</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>KEEPR90628497</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>device_id</t>
+  </si>
+  <si>
+    <t>KEEPR90638498</t>
+  </si>
   <si>
     <t>product_uuid</t>
   </si>
   <si>
-    <t>device_id</t>
-  </si>
-  <si>
-    <t>EEF8EF65-AAAA-4410-B201-B6E1C4B9A486</t>
-  </si>
-  <si>
-    <t>color</t>
-  </si>
-  <si>
-    <t>major</t>
-  </si>
-  <si>
-    <t>minor</t>
-  </si>
-  <si>
-    <t>White</t>
-  </si>
-  <si>
-    <t>Black</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DC:0D:30:11:2E:7A
-</t>
+    <t>KEEPR90628497 EEF8EF65-AAAA-4410-B201-B6E1C4B9A486</t>
+  </si>
+  <si>
+    <t>KEEPR90638498 EEF8EF65-AAAA-4410-B201-B6E1C4B9A486</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -59,6 +64,11 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -105,8 +115,24 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -492,69 +518,118 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="topLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="31.75" customWidth="1"/>
-    <col min="2" max="2" width="20.75" customWidth="1"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="31.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3">
+        <v>9062</v>
+      </c>
+      <c r="D2" s="3">
+        <v>8497</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75">
-      <c r="A2" t="s">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3">
+        <v>9063</v>
+      </c>
+      <c r="D3" s="3">
+        <v>8498</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2">
-        <v>9062</v>
-      </c>
-      <c r="E2">
-        <v>8497</v>
-      </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3">
-        <v>9062</v>
-      </c>
-      <c r="E3">
-        <v>8497</v>
-      </c>
+    <row r="4" ht="15.75" customHeight="1"/>
+    <row r="5" ht="15.75" customHeight="1"/>
+    <row r="6" ht="15.75" customHeight="1"/>
+    <row r="7" ht="15.75" customHeight="1"/>
+    <row r="8" ht="15.75" customHeight="1"/>
+    <row r="9" ht="15.75" customHeight="1"/>
+    <row r="10" ht="15.75" customHeight="1"/>
+    <row r="11" ht="15.75" customHeight="1"/>
+    <row r="12" ht="15.75" customHeight="1"/>
+    <row r="13" spans="4:4" ht="15.75" customHeight="1">
+      <c r="D13" s="4"/>
     </row>
+    <row r="14" ht="15.75" customHeight="1"/>
+    <row r="15" ht="15.75" customHeight="1"/>
+    <row r="16" ht="15.75" customHeight="1"/>
+    <row r="17" ht="15.75" customHeight="1"/>
+    <row r="18" ht="15.75" customHeight="1"/>
+    <row r="19" ht="15.75" customHeight="1"/>
+    <row r="20" ht="15.75" customHeight="1"/>
+    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
